--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220413.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>WM</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>니즈먼트</t>
@@ -2960,6 +2963,12 @@
       <c r="F68" t="s">
         <v>212</v>
       </c>
+      <c r="G68" t="s">
+        <v>263</v>
+      </c>
+      <c r="H68" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -3059,7 +3068,7 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H72" t="s">
         <v>244</v>
@@ -3137,7 +3146,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H75" t="s">
         <v>244</v>
@@ -3189,7 +3198,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
         <v>244</v>
@@ -3318,6 +3327,12 @@
       <c r="F82" t="s">
         <v>221</v>
       </c>
+      <c r="G82" t="s">
+        <v>263</v>
+      </c>
+      <c r="H82" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
@@ -3365,7 +3380,7 @@
         <v>223</v>
       </c>
       <c r="G84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H84" t="s">
         <v>244</v>
@@ -3391,7 +3406,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H85" t="s">
         <v>244</v>
@@ -3417,7 +3432,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3443,7 +3458,7 @@
         <v>224</v>
       </c>
       <c r="G87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H87" t="s">
         <v>244</v>
@@ -3469,7 +3484,7 @@
         <v>225</v>
       </c>
       <c r="G88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H88" t="s">
         <v>244</v>
@@ -3520,6 +3535,12 @@
       <c r="F90" t="s">
         <v>98</v>
       </c>
+      <c r="G90" t="s">
+        <v>247</v>
+      </c>
+      <c r="H90" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
@@ -3567,7 +3588,7 @@
         <v>228</v>
       </c>
       <c r="G92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H92" t="s">
         <v>244</v>
@@ -3593,7 +3614,7 @@
         <v>229</v>
       </c>
       <c r="G93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -3619,7 +3640,7 @@
         <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H94" t="s">
         <v>244</v>
@@ -3645,7 +3666,7 @@
         <v>231</v>
       </c>
       <c r="G95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H95" t="s">
         <v>244</v>
@@ -3671,7 +3692,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220413.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-13</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220413.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -776,9 +776,6 @@
   </si>
   <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>YUE HUA</t>
@@ -2106,7 +2103,7 @@
         <v>194</v>
       </c>
       <c r="G35" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H35" t="s">
         <v>244</v>
@@ -2132,7 +2129,7 @@
         <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H36" t="s">
         <v>244</v>
@@ -2158,7 +2155,7 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H37" t="s">
         <v>244</v>
@@ -2210,7 +2207,7 @@
         <v>196</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H39" t="s">
         <v>244</v>
@@ -2288,7 +2285,7 @@
         <v>197</v>
       </c>
       <c r="G42" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
         <v>244</v>
@@ -2340,7 +2337,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H44" t="s">
         <v>244</v>
@@ -2366,7 +2363,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H45" t="s">
         <v>244</v>
@@ -2522,7 +2519,7 @@
         <v>201</v>
       </c>
       <c r="G51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H51" t="s">
         <v>244</v>
@@ -2548,10 +2545,10 @@
         <v>202</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2756,10 +2753,10 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2860,7 +2857,7 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H64" t="s">
         <v>244</v>
@@ -2886,7 +2883,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H65" t="s">
         <v>244</v>
@@ -2964,7 +2961,7 @@
         <v>212</v>
       </c>
       <c r="G68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H68" t="s">
         <v>244</v>
@@ -3068,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
         <v>244</v>
@@ -3094,7 +3091,7 @@
         <v>192</v>
       </c>
       <c r="G73" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H73" t="s">
         <v>244</v>
@@ -3146,7 +3143,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
         <v>244</v>
@@ -3198,7 +3195,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H77" t="s">
         <v>244</v>
@@ -3328,7 +3325,7 @@
         <v>221</v>
       </c>
       <c r="G82" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H82" t="s">
         <v>244</v>
@@ -3354,10 +3351,10 @@
         <v>222</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3380,7 +3377,7 @@
         <v>223</v>
       </c>
       <c r="G84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H84" t="s">
         <v>244</v>
@@ -3406,7 +3403,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H85" t="s">
         <v>244</v>
@@ -3432,7 +3429,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3458,7 +3455,7 @@
         <v>224</v>
       </c>
       <c r="G87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H87" t="s">
         <v>244</v>
@@ -3484,7 +3481,7 @@
         <v>225</v>
       </c>
       <c r="G88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H88" t="s">
         <v>244</v>
@@ -3588,7 +3585,7 @@
         <v>228</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H92" t="s">
         <v>244</v>
@@ -3614,7 +3611,7 @@
         <v>229</v>
       </c>
       <c r="G93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -3640,7 +3637,7 @@
         <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H94" t="s">
         <v>244</v>
@@ -3666,7 +3663,7 @@
         <v>231</v>
       </c>
       <c r="G95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H95" t="s">
         <v>244</v>
@@ -3692,7 +3689,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H96" t="s">
         <v>244</v>
@@ -3770,7 +3767,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H99" t="s">
         <v>244</v>
